--- a/Flyout Unit Testing Issues.xlsx
+++ b/Flyout Unit Testing Issues.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t>Issue Description</t>
   </si>
@@ -397,6 +397,12 @@
   </si>
   <si>
     <t>Deepali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Able to add more products in encryption </t>
+  </si>
+  <si>
+    <t>Defect 16</t>
   </si>
 </sst>
 </file>
@@ -509,6 +515,50 @@
         <a:xfrm>
           <a:off x="0" y="1895476"/>
           <a:ext cx="2771775" cy="2585986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>96249</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AED1DE0-8B6C-4828-8639-0DC21FADDA28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4762500"/>
+          <a:ext cx="3144249" cy="3305175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -820,8 +870,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,11 +1148,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13">
@@ -1120,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9"/>
+  <dimension ref="A9:A25"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,6 +1194,11 @@
         <v>29</v>
       </c>
     </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Flyout Unit Testing Issues.xlsx
+++ b/Flyout Unit Testing Issues.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rishabh.b\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepalia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27971FD-78BF-4CB4-B464-F69C0A80042F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,18 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t>Issue Description</t>
   </si>
@@ -408,7 +403,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -866,12 +861,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,6 +938,9 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
       <c r="E4" t="s">
         <v>32</v>
       </c>
@@ -960,6 +958,9 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
       <c r="E5" t="s">
         <v>32</v>
       </c>
@@ -977,6 +978,9 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
       <c r="E6" t="s">
         <v>32</v>
       </c>
@@ -994,6 +998,9 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" t="s">
         <v>32</v>
       </c>
@@ -1039,6 +1046,9 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
       <c r="E10" t="s">
         <v>32</v>
       </c>
@@ -1073,6 +1083,9 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
       <c r="E12" t="s">
         <v>32</v>
       </c>
@@ -1090,6 +1103,9 @@
       <c r="C13" t="s">
         <v>11</v>
       </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
       <c r="E13" t="s">
         <v>32</v>
       </c>
@@ -1104,6 +1120,9 @@
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
@@ -1121,6 +1140,9 @@
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
@@ -1138,6 +1160,9 @@
       <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
@@ -1155,6 +1180,9 @@
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
@@ -1166,7 +1194,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G13">
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="5">
       <filters>
         <filter val="Fixed but yet to test"/>
@@ -1180,7 +1208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A9:A25"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">

--- a/Flyout Unit Testing Issues.xlsx
+++ b/Flyout Unit Testing Issues.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepalia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shubhamm\Documents\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27971FD-78BF-4CB4-B464-F69C0A80042F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D06946-9FEC-4092-BC2F-B77909814125}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="screenshot" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
   <si>
     <t>Issue Description</t>
   </si>
@@ -358,9 +358,6 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>Happening sometimes</t>
-  </si>
-  <si>
     <t>Raised By</t>
   </si>
   <si>
@@ -398,13 +395,136 @@
   </si>
   <si>
     <t>Defect 16</t>
+  </si>
+  <si>
+    <t>want to discuss</t>
+  </si>
+  <si>
+    <t>Verified in QA</t>
+  </si>
+  <si>
+    <t>fixed/ Encryption not getting removed in QA</t>
+  </si>
+  <si>
+    <t>Shubham</t>
+  </si>
+  <si>
+    <t>fixed/Verified in QA</t>
+  </si>
+  <si>
+    <t>not reproducable/ not working in QA</t>
+  </si>
+  <si>
+    <t>not reproducable/ verified in QA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Term Mismatch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Add User+Encryption(monthly), again add user+encryption(yearly). Now add only user(term other than yearly), it is getting added.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Price mismatch in cart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: After adding encryption, its value can be increased even when user value is less. Updated Value of encryption is going to CC Cart also.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quantity Mismatch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Add User + Encryption. Again add only user(with less quantity). It gets added.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Product still visible in flyout cart, even when not in CC cart.Case: Add user+device. Remove User first and then device.Again add device.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User is visible in Flyout Cart.</t>
+    </r>
+  </si>
+  <si>
+    <t>Manually update the User quantity. Prices show as zero in PD page.</t>
+  </si>
+  <si>
+    <t>Virender</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,13 +548,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -449,12 +583,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -862,11 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,10 +1022,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -900,7 +1034,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -913,8 +1047,11 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -926,6 +1063,9 @@
       </c>
       <c r="F3" t="s">
         <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -938,14 +1078,14 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -958,14 +1098,14 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -978,14 +1118,14 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -998,17 +1138,17 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1021,8 +1161,11 @@
       <c r="F8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1034,6 +1177,9 @@
       </c>
       <c r="F9" t="s">
         <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -1046,20 +1192,17 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1071,6 +1214,9 @@
       </c>
       <c r="F11" t="s">
         <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -1083,14 +1229,14 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -1103,14 +1249,14 @@
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1118,19 +1264,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1138,19 +1284,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1158,50 +1304,128 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G13" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Fixed but yet to test"/>
-        <filter val="open"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G1" xr:uid="{A9DC70CC-100E-4AFA-820E-4A48D1E90761}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1211,20 +1435,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A9:A25"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Flyout Unit Testing Issues.xlsx
+++ b/Flyout Unit Testing Issues.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shubhamm\Documents\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepalia\Downloads\shared-docs-SMB-Shared-Docs (1)\shared-docs-SMB-Shared-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D06946-9FEC-4092-BC2F-B77909814125}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB40DBB-5CC9-4F7B-B9D5-BE3FDFCAB72A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="58">
   <si>
     <t>Issue Description</t>
   </si>
@@ -519,11 +519,51 @@
   <si>
     <t>Virender</t>
   </si>
+  <si>
+    <t>Toatl Price not getting updated while adding user and encryption in your local cart</t>
+  </si>
+  <si>
+    <t>Underline on cart icon even when cart Is closed</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>defect 22</t>
+  </si>
+  <si>
+    <t>Logged in Date</t>
+  </si>
+  <si>
+    <t>15/03/2019</t>
+  </si>
+  <si>
+    <t>When encryption is removed from cloud craze cart and after that if we try to add User or device with different term. It will generate the error message saying that 'term should be same as Add on Encryption'.</t>
+  </si>
+  <si>
+    <t>Product with different term could not be added even when only same product with different term is present in the cart:
+Case: + User M
++ Device M  - User from cart before closing flyout
++ Device  Y
+It will not letting you add device and generate error like term should be same as user even when user is not in the cart</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verified </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verified </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,13 +623,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,6 +741,74 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>2</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>190499</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>28245</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD487A6A-5021-4FD3-9A8E-DCE1FBF02AE4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -997,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,9 +1121,10 @@
     <col min="2" max="2" width="64.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="23.5703125" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1033,8 +1146,11 @@
       <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1051,7 +1167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1068,7 +1184,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1082,13 +1198,13 @@
         <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1102,13 +1218,13 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1122,13 +1238,13 @@
         <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1142,13 +1258,13 @@
         <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1161,11 +1277,11 @@
       <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1182,7 +1298,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1196,13 +1312,13 @@
         <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1219,7 +1335,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1233,13 +1349,13 @@
         <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1253,13 +1369,13 @@
         <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1273,13 +1389,13 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1299,7 +1415,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1313,13 +1429,13 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1333,13 +1449,13 @@
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1353,10 +1469,10 @@
         <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1370,10 +1486,13 @@
         <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1389,8 +1508,11 @@
       <c r="F20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1404,10 +1526,13 @@
         <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1421,7 +1546,90 @@
         <v>46</v>
       </c>
       <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
         <v>13</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1432,11 +1640,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A9:A25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A9:A44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,8 +1659,41 @@
         <v>33</v>
       </c>
     </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="StaticDib" shapeId="1025" r:id="rId3">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>44</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="StaticDib" shapeId="1025" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
--- a/Flyout Unit Testing Issues.xlsx
+++ b/Flyout Unit Testing Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepalia\Downloads\shared-docs-SMB-Shared-Docs (1)\shared-docs-SMB-Shared-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB40DBB-5CC9-4F7B-B9D5-BE3FDFCAB72A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F021B823-23A8-477F-A190-F2BEA6B53C7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="screenshot" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$26</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="78">
   <si>
     <t>Issue Description</t>
   </si>
@@ -403,18 +403,12 @@
     <t>Verified in QA</t>
   </si>
   <si>
-    <t>fixed/ Encryption not getting removed in QA</t>
-  </si>
-  <si>
     <t>Shubham</t>
   </si>
   <si>
     <t>fixed/Verified in QA</t>
   </si>
   <si>
-    <t>not reproducable/ not working in QA</t>
-  </si>
-  <si>
     <t>not reproducable/ verified in QA</t>
   </si>
   <si>
@@ -539,22 +533,89 @@
   </si>
   <si>
     <t>When encryption is removed from cloud craze cart and after that if we try to add User or device with different term. It will generate the error message saying that 'term should be same as Add on Encryption'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verified </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verified </t>
   </si>
   <si>
     <t>Product with different term could not be added even when only same product with different term is present in the cart:
 Case: + User M
 + Device M  - User from cart before closing flyout
-+ Device  Y
-It will not letting you add device and generate error like term should be same as user even when user is not in the cart</t>
-  </si>
-  <si>
-    <t>In progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verified </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verified </t>
++ Device  Y</t>
+  </si>
+  <si>
+    <t>User product not removed from the flyout cart if cart has 3+ products.</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>verified</t>
+  </si>
+  <si>
+    <t>Drive encryption can not be added into the cart</t>
+  </si>
+  <si>
+    <t>Gap between flyout and underlying page</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>Neeraj</t>
+  </si>
+  <si>
+    <t>18/03/2019</t>
+  </si>
+  <si>
+    <t>defect 28</t>
+  </si>
+  <si>
+    <t>enter 99999+ digits manully in quantity. It is displaying 0 price</t>
+  </si>
+  <si>
+    <t>shubham</t>
+  </si>
+  <si>
+    <t>deepali</t>
+  </si>
+  <si>
+    <t>defect 30</t>
+  </si>
+  <si>
+    <t>endpoint encryption not added into cart after checkout or close button</t>
+  </si>
+  <si>
+    <t>Sticky header is not properly displaying in IE, firefox and Edge browsers</t>
+  </si>
+  <si>
+    <t>Add to cart button is not working if button is at the end of the screen. See screenshot</t>
+  </si>
+  <si>
+    <t>defect 33</t>
+  </si>
+  <si>
+    <t>Without Flyout Testing:</t>
+  </si>
+  <si>
+    <t>Whenever an error displays underline appears below cart icon.</t>
+  </si>
+  <si>
+    <t>Add to cart overlay not coming on whole page</t>
+  </si>
+  <si>
+    <t>Add 1 user = 3 Enc . Loader will continue to display and error is thrown on console</t>
+  </si>
+  <si>
+    <t>Add different term of product already present in cart. 
+Error message dispalyed but the page becomes irresponsive.
+Also Underline appears below cart icon</t>
+  </si>
+  <si>
+    <t>19/03/2019</t>
   </si>
 </sst>
 </file>
@@ -562,9 +623,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,6 +653,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -630,10 +699,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,7 +738,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A83B8310-220B-4F9D-8E8B-639C55B81F42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -715,7 +782,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AED1DE0-8B6C-4828-8639-0DC21FADDA28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -746,15 +813,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>2</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>190499</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>28245</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -764,7 +831,106 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD487A6A-5021-4FD3-9A8E-DCE1FBF02AE4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="10668000"/>
+          <a:ext cx="3143249" cy="1476375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>1</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>457199</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0914D4E-050E-4648-A6B5-E0B1645E8782}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -809,6 +975,50 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F28B2F09-A7E8-4B37-AC55-4586ED2F21BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14668500"/>
+          <a:ext cx="2867025" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1109,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,7 +1357,7 @@
         <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1200,8 +1410,8 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>36</v>
+      <c r="G4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1221,7 +1431,7 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1241,7 +1451,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1261,7 +1471,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1278,7 +1488,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1295,7 +1505,7 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -1314,8 +1524,8 @@
       <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>39</v>
+      <c r="G10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1332,7 +1542,7 @@
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -1352,7 +1562,7 @@
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -1372,7 +1582,7 @@
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1392,7 +1602,7 @@
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1432,7 +1642,7 @@
         <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1452,7 +1662,7 @@
         <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1460,16 +1670,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1477,19 +1690,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1497,19 +1710,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1517,7 +1730,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -1529,7 +1742,7 @@
         <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1537,19 +1750,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1557,19 +1770,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>53</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1577,7 +1793,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
@@ -1586,10 +1802,13 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>53</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1597,22 +1816,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
         <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>53</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1620,20 +1842,260 @@
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
         <v>31</v>
       </c>
       <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>52</v>
+      <c r="H29" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{A9DC70CC-100E-4AFA-820E-4A48D1E90761}"/>
+  <autoFilter ref="A1:G26" xr:uid="{A9DC70CC-100E-4AFA-820E-4A48D1E90761}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1641,10 +2103,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A9:A44"/>
+  <dimension ref="A9:A76"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,7 +2123,22 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1694,6 +2171,31 @@
         <oleObject progId="StaticDib" shapeId="1025" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="StaticDib" shapeId="1026" r:id="rId5">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>66</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>74</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="StaticDib" shapeId="1026" r:id="rId5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>